--- a/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>RAAS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,79 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>29200</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>40400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>29800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>34200</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="3">
-        <v>21200</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>34900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>21600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -742,57 +745,63 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18100</v>
+        <v>24700</v>
       </c>
       <c r="E9" s="3">
-        <v>17400</v>
+        <v>18500</v>
       </c>
       <c r="F9" s="3">
-        <v>10800</v>
+        <v>17800</v>
       </c>
       <c r="G9" s="3">
-        <v>20300</v>
+        <v>11000</v>
       </c>
       <c r="H9" s="3">
-        <v>12400</v>
+        <v>20700</v>
       </c>
       <c r="I9" s="3">
-        <v>14600</v>
+        <v>12700</v>
       </c>
       <c r="J9" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K9" s="3">
         <v>11200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>15700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>14000</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6900</v>
+        <v>8200</v>
       </c>
       <c r="E12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="F12" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,28 +919,31 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>300</v>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -929,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,28 +964,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42100</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>52800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43000</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
-        <v>41500</v>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>28200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>42300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>28700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -968,28 +994,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-12400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-13100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
-        <v>-7200</v>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-7400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-7100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,28 +1042,29 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1039,25 +1072,28 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-45200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-7200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1068,78 +1104,87 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13900</v>
+        <v>-46300</v>
       </c>
       <c r="E23" s="3">
-        <v>-9600</v>
+        <v>-14200</v>
       </c>
       <c r="F23" s="3">
-        <v>-7300</v>
+        <v>-9800</v>
       </c>
       <c r="G23" s="3">
-        <v>-8200</v>
+        <v>-7400</v>
       </c>
       <c r="H23" s="3">
-        <v>-7000</v>
+        <v>-8400</v>
       </c>
       <c r="I23" s="3">
-        <v>-6000</v>
+        <v>-7200</v>
       </c>
       <c r="J23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1152,11 +1197,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,28 +1232,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>-46200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3">
-        <v>-8200</v>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-8400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1213,28 +1264,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-48300</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>-531600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-49300</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="3">
-        <v>-14200</v>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-14500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-8300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,28 +1424,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1387,28 +1456,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-48300</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>-531600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-49300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="3">
-        <v>-14200</v>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-14500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-8300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,28 +1520,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-48300</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>-531600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-49300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="3">
-        <v>-14200</v>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-14500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-8300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1619,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9200</v>
+        <v>46300</v>
       </c>
       <c r="E41" s="3">
-        <v>15800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>16100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1563,13 +1649,16 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1577,34 +1666,37 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42200</v>
+        <v>46000</v>
       </c>
       <c r="E43" s="3">
-        <v>46800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>43100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>47800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>19800</v>
       </c>
       <c r="E45" s="3">
-        <v>21300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>21800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1679,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67300</v>
+        <v>137100</v>
       </c>
       <c r="E46" s="3">
-        <v>83900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>68700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>85700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1708,19 +1809,22 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9400</v>
+        <v>10300</v>
       </c>
       <c r="E47" s="3">
-        <v>8900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1737,19 +1841,22 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>2800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1873,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>80500</v>
+        <v>151100</v>
       </c>
       <c r="E54" s="3">
-        <v>96500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>82200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>98500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19100</v>
+        <v>20500</v>
       </c>
       <c r="E57" s="3">
-        <v>23500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>23900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1995,19 +2125,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20300</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
-        <v>19700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>20200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2024,19 +2157,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30400</v>
+        <v>97500</v>
       </c>
       <c r="E59" s="3">
-        <v>31000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>31100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>31700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2053,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69800</v>
+        <v>121200</v>
       </c>
       <c r="E60" s="3">
-        <v>74200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>71300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>75800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,19 +2253,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>2600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71200</v>
+        <v>124600</v>
       </c>
       <c r="E66" s="3">
-        <v>73500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>72700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>75100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,19 +2491,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>249300</v>
+        <v>760700</v>
       </c>
       <c r="E70" s="3">
-        <v>224600</v>
+        <v>254600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>229400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2555,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-232300</v>
+        <v>-766700</v>
       </c>
       <c r="E72" s="3">
-        <v>-184700</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-237200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-188600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-240000</v>
+        <v>-734200</v>
       </c>
       <c r="E76" s="3">
-        <v>-201700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-245100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-206000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,62 +2747,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-48300</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+        <v>-531600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-49300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="3">
-        <v>-14200</v>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-14500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-8300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,26 +2832,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,25 +3022,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>-8700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-12300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,26 +3070,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,25 +3164,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-11700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,25 +3338,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>16700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3125,26 +3370,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3154,25 +3402,28 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>37000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-6800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3181,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>RAAS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>40400</v>
+        <v>31500</v>
       </c>
       <c r="E8" s="3">
-        <v>29800</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>39800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
-        <v>34900</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
-        <v>21600</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>34500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>21300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -748,63 +752,69 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>24700</v>
+        <v>18000</v>
       </c>
       <c r="E9" s="3">
-        <v>18500</v>
+        <v>24300</v>
       </c>
       <c r="F9" s="3">
-        <v>17800</v>
+        <v>18200</v>
       </c>
       <c r="G9" s="3">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="H9" s="3">
-        <v>20700</v>
+        <v>10800</v>
       </c>
       <c r="I9" s="3">
-        <v>12700</v>
+        <v>20400</v>
       </c>
       <c r="J9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K9" s="3">
         <v>14900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15700</v>
+        <v>13500</v>
       </c>
       <c r="E10" s="3">
-        <v>11400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11200</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
-        <v>14300</v>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>8900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8200</v>
+        <v>10600</v>
       </c>
       <c r="E12" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F12" s="3">
-        <v>5700</v>
+        <v>6900</v>
       </c>
       <c r="G12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,31 +942,34 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>300</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
-        <v>300</v>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -954,8 +977,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,31 +991,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52800</v>
+        <v>54600</v>
       </c>
       <c r="E17" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>52100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="3">
-        <v>42300</v>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>28700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>41800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>28400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -997,31 +1024,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12400</v>
+        <v>-23100</v>
       </c>
       <c r="E18" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-12300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-12900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7400</v>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-7000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,31 +1076,32 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33100</v>
+        <v>-3300</v>
       </c>
       <c r="E20" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1075,31 +1109,34 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-45200</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-44700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-13500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1107,72 +1144,81 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-46300</v>
+        <v>-26500</v>
       </c>
       <c r="E23" s="3">
-        <v>-14200</v>
+        <v>-45700</v>
       </c>
       <c r="F23" s="3">
-        <v>-9800</v>
+        <v>-14000</v>
       </c>
       <c r="G23" s="3">
-        <v>-7400</v>
+        <v>-9700</v>
       </c>
       <c r="H23" s="3">
-        <v>-8400</v>
+        <v>-7300</v>
       </c>
       <c r="I23" s="3">
-        <v>-7200</v>
+        <v>-8300</v>
       </c>
       <c r="J23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,14 +1226,14 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1200,11 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,31 +1284,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46200</v>
+        <v>-26300</v>
       </c>
       <c r="E26" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-45600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-14500</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="3">
-        <v>-8400</v>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I26" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1267,31 +1319,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-531600</v>
+        <v>-433200</v>
       </c>
       <c r="E27" s="3">
-        <v>-49300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-524700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-48700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="3">
-        <v>-14500</v>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I27" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-14300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-8200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,31 +1494,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33100</v>
+        <v>3300</v>
       </c>
       <c r="E32" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1459,31 +1529,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-531600</v>
+        <v>-433200</v>
       </c>
       <c r="E33" s="3">
-        <v>-49300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-524700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-48700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="3">
-        <v>-14500</v>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I33" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-14300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-8200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,31 +1599,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-531600</v>
+        <v>-433200</v>
       </c>
       <c r="E35" s="3">
-        <v>-49300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-524700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-48700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="3">
-        <v>-14500</v>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I35" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-14300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-8200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,22 +1706,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46300</v>
+        <v>367000</v>
       </c>
       <c r="E41" s="3">
-        <v>9400</v>
+        <v>45700</v>
       </c>
       <c r="F41" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>15900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1652,22 +1739,25 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25000</v>
+        <v>62100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>24700</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1678,28 +1768,31 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46000</v>
+        <v>42000</v>
       </c>
       <c r="E43" s="3">
-        <v>43100</v>
+        <v>45400</v>
       </c>
       <c r="F43" s="3">
-        <v>47800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>42500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>47200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,22 +1844,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19800</v>
+        <v>21900</v>
       </c>
       <c r="E45" s="3">
-        <v>16200</v>
+        <v>19600</v>
       </c>
       <c r="F45" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>21500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1780,22 +1879,25 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>137100</v>
+        <v>492900</v>
       </c>
       <c r="E46" s="3">
-        <v>68700</v>
+        <v>135300</v>
       </c>
       <c r="F46" s="3">
-        <v>85700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>67800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>84600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1812,22 +1914,25 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="E47" s="3">
-        <v>9600</v>
+        <v>10200</v>
       </c>
       <c r="F47" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>9500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1844,22 +1949,25 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>2700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1876,22 +1984,25 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
-        <v>500</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2089,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,22 +2159,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>151100</v>
+        <v>534800</v>
       </c>
       <c r="E54" s="3">
-        <v>82200</v>
+        <v>149100</v>
       </c>
       <c r="F54" s="3">
-        <v>98500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>81200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>97200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,22 +2226,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20500</v>
+        <v>17200</v>
       </c>
       <c r="E57" s="3">
-        <v>19500</v>
+        <v>20300</v>
       </c>
       <c r="F57" s="3">
-        <v>23900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>19200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>23600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2137,13 +2271,13 @@
         <v>3100</v>
       </c>
       <c r="E58" s="3">
-        <v>20800</v>
+        <v>3100</v>
       </c>
       <c r="F58" s="3">
-        <v>20200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>19900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2160,22 +2294,25 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97500</v>
+        <v>76700</v>
       </c>
       <c r="E59" s="3">
-        <v>31100</v>
+        <v>96300</v>
       </c>
       <c r="F59" s="3">
-        <v>31700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>30700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>31300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2192,22 +2329,25 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121200</v>
+        <v>97000</v>
       </c>
       <c r="E60" s="3">
-        <v>71300</v>
+        <v>119600</v>
       </c>
       <c r="F60" s="3">
-        <v>75800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>70400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>74800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,23 +2399,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2539,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>124600</v>
+        <v>101600</v>
       </c>
       <c r="E66" s="3">
-        <v>72700</v>
+        <v>123000</v>
       </c>
       <c r="F66" s="3">
-        <v>75100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>71800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>74100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,22 +2659,25 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>760700</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>254600</v>
+        <v>750800</v>
       </c>
       <c r="F70" s="3">
-        <v>229400</v>
+        <v>251200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>226400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,22 +2729,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-766700</v>
+        <v>-1187300</v>
       </c>
       <c r="E72" s="3">
-        <v>-237200</v>
+        <v>-756800</v>
       </c>
       <c r="F72" s="3">
-        <v>-188600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-234100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-186100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +2869,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-734200</v>
+        <v>433200</v>
       </c>
       <c r="E76" s="3">
-        <v>-245100</v>
+        <v>-724600</v>
       </c>
       <c r="F76" s="3">
-        <v>-206000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-241900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-203300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,68 +2939,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-531600</v>
+        <v>-433200</v>
       </c>
       <c r="E81" s="3">
-        <v>-49300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-524700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-48700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="3">
-        <v>-14500</v>
+      <c r="H81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I81" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-14300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-8200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,25 +3031,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>300</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,25 +3239,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-8700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-8600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-4000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>-12300</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,25 +3291,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>-100</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,25 +3394,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-24600</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-11700</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,25 +3584,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>70900</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>16700</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3373,25 +3619,28 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>500</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3405,25 +3654,28 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>37000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>36600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-6600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>-6800</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3435,6 +3687,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>RAAS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>31500</v>
+        <v>43200</v>
       </c>
       <c r="E8" s="3">
-        <v>39800</v>
+        <v>42900</v>
       </c>
       <c r="F8" s="3">
-        <v>29500</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>32000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>29900</v>
       </c>
       <c r="I8" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K8" s="3">
         <v>34500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>21300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18000</v>
+        <v>24400</v>
       </c>
       <c r="E9" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="F9" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="G9" s="3">
-        <v>17500</v>
+        <v>24700</v>
       </c>
       <c r="H9" s="3">
-        <v>10800</v>
+        <v>18500</v>
       </c>
       <c r="I9" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K9" s="3">
         <v>20400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13500</v>
+        <v>18800</v>
       </c>
       <c r="E10" s="3">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="F10" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I10" s="3">
         <v>11200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K10" s="3">
         <v>14100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10600</v>
+        <v>11800</v>
       </c>
       <c r="E12" s="3">
-        <v>8000</v>
+        <v>9700</v>
       </c>
       <c r="F12" s="3">
-        <v>6900</v>
+        <v>10800</v>
       </c>
       <c r="G12" s="3">
-        <v>5600</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="I12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="3">
         <v>7600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6000</v>
       </c>
       <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,16 +944,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -930,11 +970,11 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -945,43 +985,55 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54600</v>
+        <v>61100</v>
       </c>
       <c r="E17" s="3">
-        <v>52100</v>
+        <v>60400</v>
       </c>
       <c r="F17" s="3">
-        <v>42400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
+        <v>55500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>53000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43100</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>41800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>28400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23100</v>
+        <v>-17900</v>
       </c>
       <c r="E18" s="3">
-        <v>-12300</v>
+        <v>-17500</v>
       </c>
       <c r="F18" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1143,92 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3300</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>-32700</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,89 +1236,101 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26500</v>
+        <v>-17700</v>
       </c>
       <c r="E23" s="3">
-        <v>-45700</v>
+        <v>-16700</v>
       </c>
       <c r="F23" s="3">
-        <v>-14000</v>
+        <v>-26900</v>
       </c>
       <c r="G23" s="3">
-        <v>-9700</v>
+        <v>-46500</v>
       </c>
       <c r="H23" s="3">
-        <v>-7300</v>
+        <v>-14200</v>
       </c>
       <c r="I23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1249,11 +1341,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26300</v>
+        <v>-17600</v>
       </c>
       <c r="E26" s="3">
-        <v>-45600</v>
+        <v>-16500</v>
       </c>
       <c r="F26" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-433200</v>
+        <v>-17500</v>
       </c>
       <c r="E27" s="3">
-        <v>-524700</v>
+        <v>-16700</v>
       </c>
       <c r="F27" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3">
+        <v>-440400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-533500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3300</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>32700</v>
+        <v>-800</v>
       </c>
       <c r="F32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>33300</v>
+      </c>
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-433200</v>
+        <v>-17500</v>
       </c>
       <c r="E33" s="3">
-        <v>-524700</v>
+        <v>-16700</v>
       </c>
       <c r="F33" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3">
+        <v>-440400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-533500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-433200</v>
+        <v>-17500</v>
       </c>
       <c r="E35" s="3">
-        <v>-524700</v>
+        <v>-16700</v>
       </c>
       <c r="F35" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3">
+        <v>-440400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-533500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,28 +1879,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>367000</v>
+        <v>92600</v>
       </c>
       <c r="E41" s="3">
-        <v>45700</v>
+        <v>105300</v>
       </c>
       <c r="F41" s="3">
-        <v>9300</v>
+        <v>373100</v>
       </c>
       <c r="G41" s="3">
-        <v>15900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>46400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>16200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1742,28 +1916,34 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62100</v>
+        <v>320200</v>
       </c>
       <c r="E42" s="3">
-        <v>24700</v>
+        <v>314900</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>63200</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1771,34 +1951,40 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42000</v>
+        <v>66800</v>
       </c>
       <c r="E43" s="3">
-        <v>45400</v>
+        <v>66500</v>
       </c>
       <c r="F43" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="G43" s="3">
-        <v>47200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>46200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>43300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>48000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,29 +2039,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I45" s="3">
         <v>21900</v>
       </c>
-      <c r="E45" s="3">
-        <v>19600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>15900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>21500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,28 +2080,34 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>492900</v>
+        <v>501800</v>
       </c>
       <c r="E46" s="3">
-        <v>135300</v>
+        <v>508800</v>
       </c>
       <c r="F46" s="3">
-        <v>67800</v>
+        <v>501200</v>
       </c>
       <c r="G46" s="3">
-        <v>84600</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>137600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>68900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>86000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1917,28 +2121,34 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10900</v>
+        <v>10000</v>
       </c>
       <c r="E47" s="3">
-        <v>10200</v>
+        <v>8900</v>
       </c>
       <c r="F47" s="3">
-        <v>9500</v>
+        <v>11100</v>
       </c>
       <c r="G47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>9100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1952,28 +2162,34 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E48" s="3">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="F48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>2800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1987,28 +2203,34 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26600</v>
+        <v>31600</v>
       </c>
       <c r="E49" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
-        <v>400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2326,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,28 +2408,34 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>534800</v>
+        <v>548000</v>
       </c>
       <c r="E54" s="3">
-        <v>149100</v>
+        <v>549400</v>
       </c>
       <c r="F54" s="3">
-        <v>81200</v>
+        <v>543700</v>
       </c>
       <c r="G54" s="3">
-        <v>97200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>151600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>82500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>98800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,28 +2487,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17200</v>
+        <v>28100</v>
       </c>
       <c r="E57" s="3">
-        <v>20300</v>
+        <v>22600</v>
       </c>
       <c r="F57" s="3">
-        <v>19200</v>
+        <v>17500</v>
       </c>
       <c r="G57" s="3">
-        <v>23600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>24000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2262,28 +2524,34 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>19900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>20200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2297,28 +2565,34 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76700</v>
+        <v>41400</v>
       </c>
       <c r="E59" s="3">
-        <v>96300</v>
+        <v>79500</v>
       </c>
       <c r="F59" s="3">
-        <v>30700</v>
+        <v>78000</v>
       </c>
       <c r="G59" s="3">
-        <v>31300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>97900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>31800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2332,28 +2606,34 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>97000</v>
+        <v>69500</v>
       </c>
       <c r="E60" s="3">
-        <v>119600</v>
+        <v>102100</v>
       </c>
       <c r="F60" s="3">
-        <v>70400</v>
+        <v>98700</v>
       </c>
       <c r="G60" s="3">
-        <v>74800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>121600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>71600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>76100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,29 +2688,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="E62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,28 +2852,34 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101600</v>
+        <v>75000</v>
       </c>
       <c r="E66" s="3">
-        <v>123000</v>
+        <v>106400</v>
       </c>
       <c r="F66" s="3">
-        <v>71800</v>
+        <v>103300</v>
       </c>
       <c r="G66" s="3">
-        <v>74100</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>125000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>75300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,19 +3007,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>750800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>251200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>226400</v>
+        <v>763400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>255500</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>230200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,28 +3074,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1187300</v>
+        <v>-1241300</v>
       </c>
       <c r="E72" s="3">
-        <v>-756800</v>
+        <v>-1223900</v>
       </c>
       <c r="F72" s="3">
-        <v>-234100</v>
+        <v>-1207200</v>
       </c>
       <c r="G72" s="3">
-        <v>-186100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-769400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-189200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,28 +3238,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>433200</v>
+        <v>472900</v>
       </c>
       <c r="E76" s="3">
-        <v>-724600</v>
+        <v>442900</v>
       </c>
       <c r="F76" s="3">
-        <v>-241900</v>
+        <v>440400</v>
       </c>
       <c r="G76" s="3">
-        <v>-203300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-736800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-245900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-206700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-433200</v>
+        <v>-17500</v>
       </c>
       <c r="E81" s="3">
-        <v>-524700</v>
+        <v>-16700</v>
       </c>
       <c r="F81" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3">
+        <v>-440400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-533500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,28 +3428,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,28 +3670,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-22300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,28 +3732,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,28 +3851,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>10600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,28 +4073,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>70000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
+        <v>71600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3622,28 +4114,34 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3657,28 +4155,34 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>36600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-9500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3690,6 +4194,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E8" s="3">
         <v>43200</v>
       </c>
-      <c r="E8" s="3">
-        <v>42900</v>
-      </c>
       <c r="F8" s="3">
-        <v>32000</v>
+        <v>32300</v>
       </c>
       <c r="G8" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="H8" s="3">
-        <v>29900</v>
+        <v>30200</v>
       </c>
       <c r="I8" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="J8" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="K8" s="3">
         <v>34500</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="E9" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="F9" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="G9" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="H9" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="I9" s="3">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="J9" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="K9" s="3">
         <v>20400</v>
@@ -816,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="E10" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F10" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="G10" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="H10" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="I10" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="J10" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="K10" s="3">
         <v>14100</v>
@@ -874,10 +874,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E12" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -889,10 +889,10 @@
         <v>7100</v>
       </c>
       <c r="I12" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J12" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K12" s="3">
         <v>7600</v>
@@ -1052,19 +1052,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61100</v>
+        <v>61600</v>
       </c>
       <c r="E17" s="3">
-        <v>60400</v>
+        <v>60900</v>
       </c>
       <c r="F17" s="3">
-        <v>55500</v>
+        <v>55900</v>
       </c>
       <c r="G17" s="3">
-        <v>53000</v>
+        <v>53400</v>
       </c>
       <c r="H17" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1093,19 +1093,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="E18" s="3">
-        <v>-17500</v>
+        <v>-17700</v>
       </c>
       <c r="F18" s="3">
-        <v>-23500</v>
+        <v>-23700</v>
       </c>
       <c r="G18" s="3">
-        <v>-12500</v>
+        <v>-12600</v>
       </c>
       <c r="H18" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1160,7 +1160,7 @@
         <v>-3400</v>
       </c>
       <c r="G20" s="3">
-        <v>-33300</v>
+        <v>-33500</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
@@ -1201,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-44400</v>
+        <v>-44700</v>
       </c>
       <c r="H21" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17700</v>
+        <v>-17900</v>
       </c>
       <c r="E23" s="3">
-        <v>-16700</v>
+        <v>-16900</v>
       </c>
       <c r="F23" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="G23" s="3">
-        <v>-46500</v>
+        <v>-46900</v>
       </c>
       <c r="H23" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="I23" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="J23" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="K23" s="3">
         <v>-8300</v>
@@ -1397,19 +1397,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="E26" s="3">
-        <v>-16500</v>
+        <v>-16700</v>
       </c>
       <c r="F26" s="3">
-        <v>-26800</v>
+        <v>-27000</v>
       </c>
       <c r="G26" s="3">
-        <v>-46400</v>
+        <v>-46700</v>
       </c>
       <c r="H26" s="3">
-        <v>-14700</v>
+        <v>-14800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1438,19 +1438,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="E27" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F27" s="3">
-        <v>-440400</v>
+        <v>-443800</v>
       </c>
       <c r="G27" s="3">
-        <v>-533500</v>
+        <v>-537600</v>
       </c>
       <c r="H27" s="3">
-        <v>-49500</v>
+        <v>-49900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1652,7 +1652,7 @@
         <v>3400</v>
       </c>
       <c r="G32" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
@@ -1684,19 +1684,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="E33" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F33" s="3">
-        <v>-440400</v>
+        <v>-443800</v>
       </c>
       <c r="G33" s="3">
-        <v>-533500</v>
+        <v>-537600</v>
       </c>
       <c r="H33" s="3">
-        <v>-49500</v>
+        <v>-49900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1766,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="E35" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F35" s="3">
-        <v>-440400</v>
+        <v>-443800</v>
       </c>
       <c r="G35" s="3">
-        <v>-533500</v>
+        <v>-537600</v>
       </c>
       <c r="H35" s="3">
-        <v>-49500</v>
+        <v>-49900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92600</v>
+        <v>93300</v>
       </c>
       <c r="E41" s="3">
-        <v>105300</v>
+        <v>106100</v>
       </c>
       <c r="F41" s="3">
-        <v>373100</v>
+        <v>376000</v>
       </c>
       <c r="G41" s="3">
-        <v>46400</v>
+        <v>46800</v>
       </c>
       <c r="H41" s="3">
         <v>9500</v>
       </c>
       <c r="I41" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1928,16 +1928,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>320200</v>
+        <v>322700</v>
       </c>
       <c r="E42" s="3">
-        <v>314900</v>
+        <v>317400</v>
       </c>
       <c r="F42" s="3">
-        <v>63200</v>
+        <v>63700</v>
       </c>
       <c r="G42" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1969,22 +1969,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66800</v>
+        <v>67300</v>
       </c>
       <c r="E43" s="3">
-        <v>66500</v>
+        <v>67000</v>
       </c>
       <c r="F43" s="3">
-        <v>42700</v>
+        <v>43000</v>
       </c>
       <c r="G43" s="3">
-        <v>46200</v>
+        <v>46500</v>
       </c>
       <c r="H43" s="3">
-        <v>43300</v>
+        <v>43600</v>
       </c>
       <c r="I43" s="3">
-        <v>48000</v>
+        <v>48300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2051,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E45" s="3">
         <v>22200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>16300</v>
+      </c>
+      <c r="I45" s="3">
         <v>22000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>22200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>19900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>21900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2092,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>501800</v>
+        <v>505700</v>
       </c>
       <c r="E46" s="3">
-        <v>508800</v>
+        <v>512700</v>
       </c>
       <c r="F46" s="3">
-        <v>501200</v>
+        <v>505000</v>
       </c>
       <c r="G46" s="3">
-        <v>137600</v>
+        <v>138700</v>
       </c>
       <c r="H46" s="3">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="I46" s="3">
-        <v>86000</v>
+        <v>86700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2136,19 +2136,19 @@
         <v>10000</v>
       </c>
       <c r="E47" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F47" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G47" s="3">
         <v>10400</v>
       </c>
       <c r="H47" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="I47" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2174,7 +2174,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E48" s="3">
         <v>3200</v>
@@ -2215,13 +2215,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="E49" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="F49" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>548000</v>
+        <v>552200</v>
       </c>
       <c r="E54" s="3">
-        <v>549400</v>
+        <v>553600</v>
       </c>
       <c r="F54" s="3">
-        <v>543700</v>
+        <v>547900</v>
       </c>
       <c r="G54" s="3">
-        <v>151600</v>
+        <v>152800</v>
       </c>
       <c r="H54" s="3">
-        <v>82500</v>
+        <v>83200</v>
       </c>
       <c r="I54" s="3">
-        <v>98800</v>
+        <v>99600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2495,22 +2495,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="E57" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="F57" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="G57" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="H57" s="3">
-        <v>19500</v>
+        <v>19700</v>
       </c>
       <c r="I57" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2542,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H58" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="I58" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2577,22 +2577,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41400</v>
+        <v>41800</v>
       </c>
       <c r="E59" s="3">
-        <v>79500</v>
+        <v>80100</v>
       </c>
       <c r="F59" s="3">
-        <v>78000</v>
+        <v>78600</v>
       </c>
       <c r="G59" s="3">
-        <v>97900</v>
+        <v>98600</v>
       </c>
       <c r="H59" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="I59" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2618,22 +2618,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69500</v>
+        <v>70100</v>
       </c>
       <c r="E60" s="3">
-        <v>102100</v>
+        <v>102900</v>
       </c>
       <c r="F60" s="3">
-        <v>98700</v>
+        <v>99400</v>
       </c>
       <c r="G60" s="3">
-        <v>121600</v>
+        <v>122500</v>
       </c>
       <c r="H60" s="3">
-        <v>71600</v>
+        <v>72100</v>
       </c>
       <c r="I60" s="3">
-        <v>76100</v>
+        <v>76600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2709,7 +2709,7 @@
         <v>5200</v>
       </c>
       <c r="G62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
@@ -2864,22 +2864,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75000</v>
+        <v>75600</v>
       </c>
       <c r="E66" s="3">
-        <v>106400</v>
+        <v>107200</v>
       </c>
       <c r="F66" s="3">
-        <v>103300</v>
+        <v>104100</v>
       </c>
       <c r="G66" s="3">
-        <v>125000</v>
+        <v>126000</v>
       </c>
       <c r="H66" s="3">
-        <v>73000</v>
+        <v>73600</v>
       </c>
       <c r="I66" s="3">
-        <v>75300</v>
+        <v>75900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>763400</v>
+        <v>769200</v>
       </c>
       <c r="H70" s="3">
-        <v>255500</v>
+        <v>257400</v>
       </c>
       <c r="I70" s="3">
-        <v>230200</v>
+        <v>232000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3086,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1241300</v>
+        <v>-1250800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1223900</v>
+        <v>-1233200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1207200</v>
+        <v>-1216400</v>
       </c>
       <c r="G72" s="3">
-        <v>-769400</v>
+        <v>-775300</v>
       </c>
       <c r="H72" s="3">
-        <v>-238000</v>
+        <v>-239900</v>
       </c>
       <c r="I72" s="3">
-        <v>-189200</v>
+        <v>-190700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>472900</v>
+        <v>476500</v>
       </c>
       <c r="E76" s="3">
-        <v>442900</v>
+        <v>446300</v>
       </c>
       <c r="F76" s="3">
-        <v>440400</v>
+        <v>443800</v>
       </c>
       <c r="G76" s="3">
-        <v>-736800</v>
+        <v>-742400</v>
       </c>
       <c r="H76" s="3">
-        <v>-245900</v>
+        <v>-247800</v>
       </c>
       <c r="I76" s="3">
-        <v>-206700</v>
+        <v>-208300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3378,19 +3378,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="E81" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="F81" s="3">
-        <v>-440400</v>
+        <v>-443800</v>
       </c>
       <c r="G81" s="3">
-        <v>-533500</v>
+        <v>-537600</v>
       </c>
       <c r="H81" s="3">
-        <v>-49500</v>
+        <v>-49900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3445,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H83" s="3">
         <v>1000</v>
@@ -3691,13 +3691,13 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-35100</v>
+        <v>-35400</v>
       </c>
       <c r="H89" s="3">
-        <v>-26300</v>
+        <v>-26500</v>
       </c>
       <c r="I89" s="3">
-        <v>-22300</v>
+        <v>-22400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3872,10 +3872,10 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="H94" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="I94" s="3">
         <v>10600</v>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>71600</v>
+        <v>72200</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
@@ -4176,10 +4176,10 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="H102" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="I102" s="3">
         <v>-9500</v>

--- a/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>43600</v>
+        <v>40700</v>
       </c>
       <c r="E8" s="3">
-        <v>43200</v>
+        <v>40400</v>
       </c>
       <c r="F8" s="3">
-        <v>32300</v>
+        <v>30100</v>
       </c>
       <c r="G8" s="3">
-        <v>40800</v>
+        <v>38100</v>
       </c>
       <c r="H8" s="3">
-        <v>30200</v>
+        <v>28200</v>
       </c>
       <c r="I8" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="J8" s="3">
-        <v>20900</v>
+        <v>19500</v>
       </c>
       <c r="K8" s="3">
         <v>34500</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="E9" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="F9" s="3">
-        <v>18400</v>
+        <v>17200</v>
       </c>
       <c r="G9" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="H9" s="3">
-        <v>18700</v>
+        <v>17400</v>
       </c>
       <c r="I9" s="3">
-        <v>18000</v>
+        <v>16800</v>
       </c>
       <c r="J9" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="K9" s="3">
         <v>20400</v>
@@ -816,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18900</v>
+        <v>17700</v>
       </c>
       <c r="E10" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="F10" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="G10" s="3">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="H10" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="I10" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="J10" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="K10" s="3">
         <v>14100</v>
@@ -874,25 +874,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="J12" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="K12" s="3">
         <v>7600</v>
@@ -956,10 +956,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E14" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61600</v>
+        <v>57500</v>
       </c>
       <c r="E17" s="3">
-        <v>60900</v>
+        <v>56900</v>
       </c>
       <c r="F17" s="3">
-        <v>55900</v>
+        <v>52300</v>
       </c>
       <c r="G17" s="3">
-        <v>53400</v>
+        <v>49900</v>
       </c>
       <c r="H17" s="3">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1093,19 +1093,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18000</v>
+        <v>-16800</v>
       </c>
       <c r="E18" s="3">
-        <v>-17700</v>
+        <v>-16500</v>
       </c>
       <c r="F18" s="3">
-        <v>-23700</v>
+        <v>-22100</v>
       </c>
       <c r="G18" s="3">
-        <v>-12600</v>
+        <v>-11700</v>
       </c>
       <c r="H18" s="3">
-        <v>-13300</v>
+        <v>-12400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1151,16 +1151,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>800</v>
       </c>
       <c r="F20" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
-        <v>-33500</v>
+        <v>-31300</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
@@ -1201,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-44700</v>
+        <v>-41800</v>
       </c>
       <c r="H21" s="3">
-        <v>-13200</v>
+        <v>-12300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17900</v>
+        <v>-16700</v>
       </c>
       <c r="E23" s="3">
-        <v>-16900</v>
+        <v>-15700</v>
       </c>
       <c r="F23" s="3">
-        <v>-27100</v>
+        <v>-25300</v>
       </c>
       <c r="G23" s="3">
-        <v>-46900</v>
+        <v>-43800</v>
       </c>
       <c r="H23" s="3">
-        <v>-14400</v>
+        <v>-13400</v>
       </c>
       <c r="I23" s="3">
-        <v>-9900</v>
+        <v>-9200</v>
       </c>
       <c r="J23" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="K23" s="3">
         <v>-8300</v>
@@ -1327,7 +1327,7 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1397,19 +1397,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17700</v>
+        <v>-16500</v>
       </c>
       <c r="E26" s="3">
-        <v>-16700</v>
+        <v>-15600</v>
       </c>
       <c r="F26" s="3">
-        <v>-27000</v>
+        <v>-25200</v>
       </c>
       <c r="G26" s="3">
-        <v>-46700</v>
+        <v>-43600</v>
       </c>
       <c r="H26" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1438,19 +1438,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17600</v>
+        <v>-16400</v>
       </c>
       <c r="E27" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="F27" s="3">
-        <v>-443800</v>
+        <v>-414500</v>
       </c>
       <c r="G27" s="3">
-        <v>-537600</v>
+        <v>-502200</v>
       </c>
       <c r="H27" s="3">
-        <v>-49900</v>
+        <v>-46600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-800</v>
       </c>
       <c r="F32" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
-        <v>33500</v>
+        <v>31300</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
@@ -1684,19 +1684,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17600</v>
+        <v>-16400</v>
       </c>
       <c r="E33" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="F33" s="3">
-        <v>-443800</v>
+        <v>-414500</v>
       </c>
       <c r="G33" s="3">
-        <v>-537600</v>
+        <v>-502200</v>
       </c>
       <c r="H33" s="3">
-        <v>-49900</v>
+        <v>-46600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1766,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17600</v>
+        <v>-16400</v>
       </c>
       <c r="E35" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="F35" s="3">
-        <v>-443800</v>
+        <v>-414500</v>
       </c>
       <c r="G35" s="3">
-        <v>-537600</v>
+        <v>-502200</v>
       </c>
       <c r="H35" s="3">
-        <v>-49900</v>
+        <v>-46600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93300</v>
+        <v>87100</v>
       </c>
       <c r="E41" s="3">
-        <v>106100</v>
+        <v>99100</v>
       </c>
       <c r="F41" s="3">
-        <v>376000</v>
+        <v>351200</v>
       </c>
       <c r="G41" s="3">
-        <v>46800</v>
+        <v>43700</v>
       </c>
       <c r="H41" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="I41" s="3">
-        <v>16300</v>
+        <v>15200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1928,16 +1928,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>322700</v>
+        <v>301400</v>
       </c>
       <c r="E42" s="3">
-        <v>317400</v>
+        <v>296400</v>
       </c>
       <c r="F42" s="3">
-        <v>63700</v>
+        <v>59500</v>
       </c>
       <c r="G42" s="3">
-        <v>25300</v>
+        <v>23600</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1969,22 +1969,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>67300</v>
+        <v>62900</v>
       </c>
       <c r="E43" s="3">
-        <v>67000</v>
+        <v>62600</v>
       </c>
       <c r="F43" s="3">
-        <v>43000</v>
+        <v>40200</v>
       </c>
       <c r="G43" s="3">
-        <v>46500</v>
+        <v>43500</v>
       </c>
       <c r="H43" s="3">
-        <v>43600</v>
+        <v>40700</v>
       </c>
       <c r="I43" s="3">
-        <v>48300</v>
+        <v>45200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2051,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="E45" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F45" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="G45" s="3">
-        <v>20100</v>
+        <v>18700</v>
       </c>
       <c r="H45" s="3">
-        <v>16300</v>
+        <v>15300</v>
       </c>
       <c r="I45" s="3">
-        <v>22000</v>
+        <v>20600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2092,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>505700</v>
+        <v>472300</v>
       </c>
       <c r="E46" s="3">
-        <v>512700</v>
+        <v>478900</v>
       </c>
       <c r="F46" s="3">
-        <v>505000</v>
+        <v>471700</v>
       </c>
       <c r="G46" s="3">
-        <v>138700</v>
+        <v>129500</v>
       </c>
       <c r="H46" s="3">
-        <v>69400</v>
+        <v>64900</v>
       </c>
       <c r="I46" s="3">
-        <v>86700</v>
+        <v>80900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2133,22 +2133,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="E47" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H47" s="3">
         <v>9000</v>
       </c>
-      <c r="F47" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>9700</v>
-      </c>
       <c r="I47" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2174,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F48" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
-        <v>2700</v>
-      </c>
       <c r="I48" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2215,13 +2215,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31800</v>
+        <v>29700</v>
       </c>
       <c r="E49" s="3">
-        <v>27000</v>
+        <v>25300</v>
       </c>
       <c r="F49" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2230,7 +2230,7 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2338,22 +2338,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>552200</v>
+        <v>515800</v>
       </c>
       <c r="E54" s="3">
-        <v>553600</v>
+        <v>517100</v>
       </c>
       <c r="F54" s="3">
-        <v>547900</v>
+        <v>511800</v>
       </c>
       <c r="G54" s="3">
-        <v>152800</v>
+        <v>142700</v>
       </c>
       <c r="H54" s="3">
-        <v>83200</v>
+        <v>77700</v>
       </c>
       <c r="I54" s="3">
-        <v>99600</v>
+        <v>93000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2495,22 +2495,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="E57" s="3">
-        <v>22800</v>
+        <v>21300</v>
       </c>
       <c r="F57" s="3">
-        <v>17600</v>
+        <v>16500</v>
       </c>
       <c r="G57" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="H57" s="3">
-        <v>19700</v>
+        <v>18400</v>
       </c>
       <c r="I57" s="3">
-        <v>24200</v>
+        <v>22600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2542,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="G58" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="H58" s="3">
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="I58" s="3">
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2577,22 +2577,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41800</v>
+        <v>39000</v>
       </c>
       <c r="E59" s="3">
-        <v>80100</v>
+        <v>74900</v>
       </c>
       <c r="F59" s="3">
-        <v>78600</v>
+        <v>73400</v>
       </c>
       <c r="G59" s="3">
-        <v>98600</v>
+        <v>92100</v>
       </c>
       <c r="H59" s="3">
-        <v>31400</v>
+        <v>29400</v>
       </c>
       <c r="I59" s="3">
-        <v>32000</v>
+        <v>29900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2618,22 +2618,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>70100</v>
+        <v>65400</v>
       </c>
       <c r="E60" s="3">
-        <v>102900</v>
+        <v>96100</v>
       </c>
       <c r="F60" s="3">
-        <v>99400</v>
+        <v>92900</v>
       </c>
       <c r="G60" s="3">
-        <v>122500</v>
+        <v>114500</v>
       </c>
       <c r="H60" s="3">
-        <v>72100</v>
+        <v>67400</v>
       </c>
       <c r="I60" s="3">
-        <v>76600</v>
+        <v>71600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2700,22 +2700,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F62" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="G62" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2864,22 +2864,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75600</v>
+        <v>70600</v>
       </c>
       <c r="E66" s="3">
-        <v>107200</v>
+        <v>100200</v>
       </c>
       <c r="F66" s="3">
-        <v>104100</v>
+        <v>97200</v>
       </c>
       <c r="G66" s="3">
-        <v>126000</v>
+        <v>117700</v>
       </c>
       <c r="H66" s="3">
-        <v>73600</v>
+        <v>68700</v>
       </c>
       <c r="I66" s="3">
-        <v>75900</v>
+        <v>70900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>769200</v>
+        <v>718500</v>
       </c>
       <c r="H70" s="3">
-        <v>257400</v>
+        <v>240400</v>
       </c>
       <c r="I70" s="3">
-        <v>232000</v>
+        <v>216700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3086,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1250800</v>
+        <v>-1168400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1233200</v>
+        <v>-1151900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1216400</v>
+        <v>-1136200</v>
       </c>
       <c r="G72" s="3">
-        <v>-775300</v>
+        <v>-724200</v>
       </c>
       <c r="H72" s="3">
-        <v>-239900</v>
+        <v>-224000</v>
       </c>
       <c r="I72" s="3">
-        <v>-190700</v>
+        <v>-178100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>476500</v>
+        <v>445100</v>
       </c>
       <c r="E76" s="3">
-        <v>446300</v>
+        <v>416900</v>
       </c>
       <c r="F76" s="3">
-        <v>443800</v>
+        <v>414500</v>
       </c>
       <c r="G76" s="3">
-        <v>-742400</v>
+        <v>-693500</v>
       </c>
       <c r="H76" s="3">
-        <v>-247800</v>
+        <v>-231500</v>
       </c>
       <c r="I76" s="3">
-        <v>-208300</v>
+        <v>-194600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3378,19 +3378,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17600</v>
+        <v>-16400</v>
       </c>
       <c r="E81" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="F81" s="3">
-        <v>-443800</v>
+        <v>-414500</v>
       </c>
       <c r="G81" s="3">
-        <v>-537600</v>
+        <v>-502200</v>
       </c>
       <c r="H81" s="3">
-        <v>-49900</v>
+        <v>-46600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3445,13 +3445,13 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H83" s="3">
         <v>1000</v>
       </c>
       <c r="I83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3691,13 +3691,13 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-35400</v>
+        <v>-33000</v>
       </c>
       <c r="H89" s="3">
-        <v>-26500</v>
+        <v>-24800</v>
       </c>
       <c r="I89" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3749,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
@@ -3872,13 +3872,13 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="H94" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="I94" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>72200</v>
+        <v>67400</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
@@ -4135,13 +4135,13 @@
         <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4176,13 +4176,13 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="H102" s="3">
-        <v>-16300</v>
+        <v>-15200</v>
       </c>
       <c r="I102" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="E8" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="F8" s="3">
-        <v>30100</v>
+        <v>29900</v>
       </c>
       <c r="G8" s="3">
-        <v>38100</v>
+        <v>37800</v>
       </c>
       <c r="H8" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="I8" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="J8" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="K8" s="3">
         <v>34500</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="E9" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="F9" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="G9" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="H9" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="I9" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="J9" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="K9" s="3">
         <v>20400</v>
@@ -816,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="E10" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="F10" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G10" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="H10" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="I10" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="J10" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="K10" s="3">
         <v>14100</v>
@@ -874,16 +874,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F12" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="G12" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H12" s="3">
         <v>6600</v>
@@ -892,7 +892,7 @@
         <v>5400</v>
       </c>
       <c r="J12" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K12" s="3">
         <v>7600</v>
@@ -1052,19 +1052,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="E17" s="3">
-        <v>56900</v>
+        <v>56400</v>
       </c>
       <c r="F17" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="G17" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="H17" s="3">
-        <v>40600</v>
+        <v>40200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1093,19 +1093,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="E18" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="F18" s="3">
-        <v>-22100</v>
+        <v>-21900</v>
       </c>
       <c r="G18" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="H18" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1157,10 +1157,10 @@
         <v>800</v>
       </c>
       <c r="F20" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G20" s="3">
-        <v>-31300</v>
+        <v>-31000</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
@@ -1201,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-41800</v>
+        <v>-41400</v>
       </c>
       <c r="H21" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16700</v>
+        <v>-16500</v>
       </c>
       <c r="E23" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F23" s="3">
-        <v>-25300</v>
+        <v>-25100</v>
       </c>
       <c r="G23" s="3">
-        <v>-43800</v>
+        <v>-43400</v>
       </c>
       <c r="H23" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="I23" s="3">
         <v>-9200</v>
       </c>
       <c r="J23" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="K23" s="3">
         <v>-8300</v>
@@ -1397,19 +1397,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="E26" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="F26" s="3">
-        <v>-25200</v>
+        <v>-25000</v>
       </c>
       <c r="G26" s="3">
-        <v>-43600</v>
+        <v>-43200</v>
       </c>
       <c r="H26" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1438,19 +1438,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16400</v>
+        <v>-16300</v>
       </c>
       <c r="E27" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F27" s="3">
-        <v>-414500</v>
+        <v>-410800</v>
       </c>
       <c r="G27" s="3">
-        <v>-502200</v>
+        <v>-497600</v>
       </c>
       <c r="H27" s="3">
-        <v>-46600</v>
+        <v>-46200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1649,10 +1649,10 @@
         <v>-800</v>
       </c>
       <c r="F32" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
@@ -1684,19 +1684,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16400</v>
+        <v>-16300</v>
       </c>
       <c r="E33" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F33" s="3">
-        <v>-414500</v>
+        <v>-410800</v>
       </c>
       <c r="G33" s="3">
-        <v>-502200</v>
+        <v>-497600</v>
       </c>
       <c r="H33" s="3">
-        <v>-46600</v>
+        <v>-46200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1766,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16400</v>
+        <v>-16300</v>
       </c>
       <c r="E35" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F35" s="3">
-        <v>-414500</v>
+        <v>-410800</v>
       </c>
       <c r="G35" s="3">
-        <v>-502200</v>
+        <v>-497600</v>
       </c>
       <c r="H35" s="3">
-        <v>-46600</v>
+        <v>-46200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87100</v>
+        <v>86300</v>
       </c>
       <c r="E41" s="3">
-        <v>99100</v>
+        <v>98200</v>
       </c>
       <c r="F41" s="3">
-        <v>351200</v>
+        <v>348000</v>
       </c>
       <c r="G41" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="H41" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="I41" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1928,16 +1928,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>301400</v>
+        <v>298700</v>
       </c>
       <c r="E42" s="3">
-        <v>296400</v>
+        <v>293800</v>
       </c>
       <c r="F42" s="3">
-        <v>59500</v>
+        <v>58900</v>
       </c>
       <c r="G42" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1969,22 +1969,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62900</v>
+        <v>62300</v>
       </c>
       <c r="E43" s="3">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="F43" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="G43" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="H43" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="I43" s="3">
-        <v>45200</v>
+        <v>44700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2051,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="E45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F45" s="3">
         <v>20700</v>
       </c>
-      <c r="F45" s="3">
-        <v>20900</v>
-      </c>
       <c r="G45" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="H45" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="I45" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2092,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>472300</v>
+        <v>468100</v>
       </c>
       <c r="E46" s="3">
-        <v>478900</v>
+        <v>474500</v>
       </c>
       <c r="F46" s="3">
-        <v>471700</v>
+        <v>467500</v>
       </c>
       <c r="G46" s="3">
-        <v>129500</v>
+        <v>128400</v>
       </c>
       <c r="H46" s="3">
-        <v>64900</v>
+        <v>64300</v>
       </c>
       <c r="I46" s="3">
-        <v>80900</v>
+        <v>80200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2133,13 +2133,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="E47" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="F47" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G47" s="3">
         <v>9700</v>
@@ -2148,7 +2148,7 @@
         <v>9000</v>
       </c>
       <c r="I47" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2174,7 +2174,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
         <v>3000</v>
@@ -2186,7 +2186,7 @@
         <v>2400</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I48" s="3">
         <v>2600</v>
@@ -2215,13 +2215,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="E49" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="F49" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2350,7 +2350,7 @@
         <v>700</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>515800</v>
+        <v>511100</v>
       </c>
       <c r="E54" s="3">
-        <v>517100</v>
+        <v>512400</v>
       </c>
       <c r="F54" s="3">
-        <v>511800</v>
+        <v>507200</v>
       </c>
       <c r="G54" s="3">
-        <v>142700</v>
+        <v>141400</v>
       </c>
       <c r="H54" s="3">
-        <v>77700</v>
+        <v>77000</v>
       </c>
       <c r="I54" s="3">
-        <v>93000</v>
+        <v>92200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2495,22 +2495,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="E57" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="F57" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="G57" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="H57" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="I57" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2548,10 +2548,10 @@
         <v>2900</v>
       </c>
       <c r="H58" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="I58" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2577,22 +2577,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39000</v>
+        <v>38700</v>
       </c>
       <c r="E59" s="3">
-        <v>74900</v>
+        <v>74200</v>
       </c>
       <c r="F59" s="3">
-        <v>73400</v>
+        <v>72800</v>
       </c>
       <c r="G59" s="3">
-        <v>92100</v>
+        <v>91300</v>
       </c>
       <c r="H59" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="I59" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2618,22 +2618,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>65400</v>
+        <v>64800</v>
       </c>
       <c r="E60" s="3">
-        <v>96100</v>
+        <v>95300</v>
       </c>
       <c r="F60" s="3">
-        <v>92900</v>
+        <v>92000</v>
       </c>
       <c r="G60" s="3">
-        <v>114500</v>
+        <v>113400</v>
       </c>
       <c r="H60" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="I60" s="3">
-        <v>71600</v>
+        <v>70900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2709,13 +2709,13 @@
         <v>4900</v>
       </c>
       <c r="G62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2864,22 +2864,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70600</v>
+        <v>70000</v>
       </c>
       <c r="E66" s="3">
-        <v>100200</v>
+        <v>99300</v>
       </c>
       <c r="F66" s="3">
-        <v>97200</v>
+        <v>96400</v>
       </c>
       <c r="G66" s="3">
-        <v>117700</v>
+        <v>116600</v>
       </c>
       <c r="H66" s="3">
-        <v>68700</v>
+        <v>68100</v>
       </c>
       <c r="I66" s="3">
-        <v>70900</v>
+        <v>70300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>718500</v>
+        <v>712000</v>
       </c>
       <c r="H70" s="3">
-        <v>240400</v>
+        <v>238300</v>
       </c>
       <c r="I70" s="3">
-        <v>216700</v>
+        <v>214700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3086,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1168400</v>
+        <v>-1157800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1151900</v>
+        <v>-1141500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1136200</v>
+        <v>-1126000</v>
       </c>
       <c r="G72" s="3">
-        <v>-724200</v>
+        <v>-717700</v>
       </c>
       <c r="H72" s="3">
-        <v>-224000</v>
+        <v>-222000</v>
       </c>
       <c r="I72" s="3">
-        <v>-178100</v>
+        <v>-176500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>445100</v>
+        <v>441100</v>
       </c>
       <c r="E76" s="3">
-        <v>416900</v>
+        <v>413200</v>
       </c>
       <c r="F76" s="3">
-        <v>414500</v>
+        <v>410800</v>
       </c>
       <c r="G76" s="3">
-        <v>-693500</v>
+        <v>-687200</v>
       </c>
       <c r="H76" s="3">
-        <v>-231500</v>
+        <v>-229400</v>
       </c>
       <c r="I76" s="3">
-        <v>-194600</v>
+        <v>-192800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3378,19 +3378,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16400</v>
+        <v>-16300</v>
       </c>
       <c r="E81" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F81" s="3">
-        <v>-414500</v>
+        <v>-410800</v>
       </c>
       <c r="G81" s="3">
-        <v>-502200</v>
+        <v>-497600</v>
       </c>
       <c r="H81" s="3">
-        <v>-46600</v>
+        <v>-46200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3448,7 +3448,7 @@
         <v>1300</v>
       </c>
       <c r="H83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
@@ -3691,13 +3691,13 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-33000</v>
+        <v>-32700</v>
       </c>
       <c r="H89" s="3">
-        <v>-24800</v>
+        <v>-24600</v>
       </c>
       <c r="I89" s="3">
-        <v>-20900</v>
+        <v>-20800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3872,10 +3872,10 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-14100</v>
+        <v>-14000</v>
       </c>
       <c r="H94" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="I94" s="3">
         <v>9900</v>
@@ -4094,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="H100" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>-200</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4176,13 +4176,13 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="H102" s="3">
-        <v>-15200</v>
+        <v>-15100</v>
       </c>
       <c r="I102" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAAS_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="E8" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="F8" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="G8" s="3">
-        <v>37800</v>
+        <v>36000</v>
       </c>
       <c r="H8" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="I8" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="J8" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="K8" s="3">
         <v>34500</v>
@@ -775,25 +775,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="E9" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="F9" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="G9" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="H9" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="I9" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="J9" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="K9" s="3">
         <v>20400</v>
@@ -816,25 +816,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="E10" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="F10" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="G10" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="H10" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="I10" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="J10" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="K10" s="3">
         <v>14100</v>
@@ -874,25 +874,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="F12" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="G12" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="H12" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="I12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J12" s="3">
         <v>5400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5600</v>
       </c>
       <c r="K12" s="3">
         <v>7600</v>
@@ -959,7 +959,7 @@
         <v>-500</v>
       </c>
       <c r="E14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57000</v>
+        <v>54300</v>
       </c>
       <c r="E17" s="3">
-        <v>56400</v>
+        <v>53700</v>
       </c>
       <c r="F17" s="3">
-        <v>51800</v>
+        <v>49400</v>
       </c>
       <c r="G17" s="3">
-        <v>49400</v>
+        <v>47100</v>
       </c>
       <c r="H17" s="3">
-        <v>40200</v>
+        <v>38300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1093,19 +1093,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16700</v>
+        <v>-15900</v>
       </c>
       <c r="E18" s="3">
-        <v>-16400</v>
+        <v>-15600</v>
       </c>
       <c r="F18" s="3">
-        <v>-21900</v>
+        <v>-20900</v>
       </c>
       <c r="G18" s="3">
-        <v>-11600</v>
+        <v>-11100</v>
       </c>
       <c r="H18" s="3">
-        <v>-12300</v>
+        <v>-11700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1154,16 +1154,16 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G20" s="3">
-        <v>-31000</v>
+        <v>-29600</v>
       </c>
       <c r="H20" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-41400</v>
+        <v>-39500</v>
       </c>
       <c r="H21" s="3">
-        <v>-12200</v>
+        <v>-11600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16500</v>
+        <v>-15800</v>
       </c>
       <c r="E23" s="3">
-        <v>-15600</v>
+        <v>-14900</v>
       </c>
       <c r="F23" s="3">
-        <v>-25100</v>
+        <v>-23900</v>
       </c>
       <c r="G23" s="3">
-        <v>-43400</v>
+        <v>-41300</v>
       </c>
       <c r="H23" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="I23" s="3">
-        <v>-9200</v>
+        <v>-8700</v>
       </c>
       <c r="J23" s="3">
-        <v>-6900</v>
+        <v>-6600</v>
       </c>
       <c r="K23" s="3">
         <v>-8300</v>
@@ -1315,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
@@ -1397,19 +1397,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16400</v>
+        <v>-15600</v>
       </c>
       <c r="E26" s="3">
-        <v>-15400</v>
+        <v>-14700</v>
       </c>
       <c r="F26" s="3">
-        <v>-25000</v>
+        <v>-23800</v>
       </c>
       <c r="G26" s="3">
-        <v>-43200</v>
+        <v>-41200</v>
       </c>
       <c r="H26" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1438,19 +1438,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="E27" s="3">
-        <v>-15600</v>
+        <v>-14800</v>
       </c>
       <c r="F27" s="3">
-        <v>-410800</v>
+        <v>-391600</v>
       </c>
       <c r="G27" s="3">
-        <v>-497600</v>
+        <v>-474400</v>
       </c>
       <c r="H27" s="3">
-        <v>-46200</v>
+        <v>-44000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1646,16 +1646,16 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="H32" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1684,19 +1684,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="E33" s="3">
-        <v>-15600</v>
+        <v>-14800</v>
       </c>
       <c r="F33" s="3">
-        <v>-410800</v>
+        <v>-391600</v>
       </c>
       <c r="G33" s="3">
-        <v>-497600</v>
+        <v>-474400</v>
       </c>
       <c r="H33" s="3">
-        <v>-46200</v>
+        <v>-44000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1766,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="E35" s="3">
-        <v>-15600</v>
+        <v>-14800</v>
       </c>
       <c r="F35" s="3">
-        <v>-410800</v>
+        <v>-391600</v>
       </c>
       <c r="G35" s="3">
-        <v>-497600</v>
+        <v>-474400</v>
       </c>
       <c r="H35" s="3">
-        <v>-46200</v>
+        <v>-44000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86300</v>
+        <v>82300</v>
       </c>
       <c r="E41" s="3">
-        <v>98200</v>
+        <v>93600</v>
       </c>
       <c r="F41" s="3">
-        <v>348000</v>
+        <v>331700</v>
       </c>
       <c r="G41" s="3">
-        <v>43300</v>
+        <v>41300</v>
       </c>
       <c r="H41" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="I41" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1928,16 +1928,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>298700</v>
+        <v>284700</v>
       </c>
       <c r="E42" s="3">
-        <v>293800</v>
+        <v>280000</v>
       </c>
       <c r="F42" s="3">
-        <v>58900</v>
+        <v>56200</v>
       </c>
       <c r="G42" s="3">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1969,22 +1969,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62300</v>
+        <v>59400</v>
       </c>
       <c r="E43" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="F43" s="3">
-        <v>39800</v>
+        <v>37900</v>
       </c>
       <c r="G43" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="H43" s="3">
-        <v>40300</v>
+        <v>38500</v>
       </c>
       <c r="I43" s="3">
-        <v>44700</v>
+        <v>42700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2051,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="E45" s="3">
-        <v>20500</v>
+        <v>19600</v>
       </c>
       <c r="F45" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="G45" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="H45" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="I45" s="3">
-        <v>20400</v>
+        <v>19400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2092,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>468100</v>
+        <v>446200</v>
       </c>
       <c r="E46" s="3">
-        <v>474500</v>
+        <v>452300</v>
       </c>
       <c r="F46" s="3">
-        <v>467500</v>
+        <v>445600</v>
       </c>
       <c r="G46" s="3">
-        <v>128400</v>
+        <v>122400</v>
       </c>
       <c r="H46" s="3">
-        <v>64300</v>
+        <v>61300</v>
       </c>
       <c r="I46" s="3">
-        <v>80200</v>
+        <v>76500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2133,22 +2133,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="E47" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="F47" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="G47" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="H47" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="I47" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2174,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E48" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2215,19 +2215,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29400</v>
+        <v>28100</v>
       </c>
       <c r="E49" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="F49" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -2338,13 +2338,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>511100</v>
+        <v>487200</v>
       </c>
       <c r="E54" s="3">
-        <v>512400</v>
+        <v>488500</v>
       </c>
       <c r="F54" s="3">
-        <v>507200</v>
+        <v>483400</v>
       </c>
       <c r="G54" s="3">
-        <v>141400</v>
+        <v>134800</v>
       </c>
       <c r="H54" s="3">
-        <v>77000</v>
+        <v>73400</v>
       </c>
       <c r="I54" s="3">
-        <v>92200</v>
+        <v>87900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2495,22 +2495,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="E57" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="F57" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="G57" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="H57" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="I57" s="3">
-        <v>22400</v>
+        <v>21400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2542,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H58" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="I58" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2577,22 +2577,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38700</v>
+        <v>36800</v>
       </c>
       <c r="E59" s="3">
-        <v>74200</v>
+        <v>70700</v>
       </c>
       <c r="F59" s="3">
-        <v>72800</v>
+        <v>69400</v>
       </c>
       <c r="G59" s="3">
-        <v>91300</v>
+        <v>87000</v>
       </c>
       <c r="H59" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="I59" s="3">
-        <v>29600</v>
+        <v>28300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2618,22 +2618,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64800</v>
+        <v>61800</v>
       </c>
       <c r="E60" s="3">
-        <v>95300</v>
+        <v>90800</v>
       </c>
       <c r="F60" s="3">
-        <v>92000</v>
+        <v>87700</v>
       </c>
       <c r="G60" s="3">
-        <v>113400</v>
+        <v>108100</v>
       </c>
       <c r="H60" s="3">
-        <v>66800</v>
+        <v>63600</v>
       </c>
       <c r="I60" s="3">
-        <v>70900</v>
+        <v>67600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2700,22 +2700,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E62" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F62" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="G62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2864,22 +2864,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="E66" s="3">
-        <v>99300</v>
+        <v>94600</v>
       </c>
       <c r="F66" s="3">
-        <v>96400</v>
+        <v>91900</v>
       </c>
       <c r="G66" s="3">
-        <v>116600</v>
+        <v>111200</v>
       </c>
       <c r="H66" s="3">
-        <v>68100</v>
+        <v>64900</v>
       </c>
       <c r="I66" s="3">
-        <v>70300</v>
+        <v>67000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>712000</v>
+        <v>678700</v>
       </c>
       <c r="H70" s="3">
-        <v>238300</v>
+        <v>227100</v>
       </c>
       <c r="I70" s="3">
-        <v>214700</v>
+        <v>204700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3086,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1157800</v>
+        <v>-1103700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1141500</v>
+        <v>-1088200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1126000</v>
+        <v>-1073300</v>
       </c>
       <c r="G72" s="3">
-        <v>-717700</v>
+        <v>-684100</v>
       </c>
       <c r="H72" s="3">
-        <v>-222000</v>
+        <v>-211600</v>
       </c>
       <c r="I72" s="3">
-        <v>-176500</v>
+        <v>-168300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>441100</v>
+        <v>420500</v>
       </c>
       <c r="E76" s="3">
-        <v>413200</v>
+        <v>393800</v>
       </c>
       <c r="F76" s="3">
-        <v>410800</v>
+        <v>391600</v>
       </c>
       <c r="G76" s="3">
-        <v>-687200</v>
+        <v>-655100</v>
       </c>
       <c r="H76" s="3">
-        <v>-229400</v>
+        <v>-218600</v>
       </c>
       <c r="I76" s="3">
-        <v>-192800</v>
+        <v>-183800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3378,19 +3378,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="E81" s="3">
-        <v>-15600</v>
+        <v>-14800</v>
       </c>
       <c r="F81" s="3">
-        <v>-410800</v>
+        <v>-391600</v>
       </c>
       <c r="G81" s="3">
-        <v>-497600</v>
+        <v>-474400</v>
       </c>
       <c r="H81" s="3">
-        <v>-46200</v>
+        <v>-44000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3445,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
@@ -3691,13 +3691,13 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-32700</v>
+        <v>-31200</v>
       </c>
       <c r="H89" s="3">
-        <v>-24600</v>
+        <v>-23400</v>
       </c>
       <c r="I89" s="3">
-        <v>-20800</v>
+        <v>-19800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3872,13 +3872,13 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="H94" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="I94" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>66800</v>
+        <v>63700</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4176,13 +4176,13 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="H102" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="I102" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
